--- a/src/outputs/pot/pot.xlsx
+++ b/src/outputs/pot/pot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_2\src\outputs\pot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_5\src\outputs\pot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7AB2555-FCFC-4DAD-ABD1-16E080E63279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9450DBA2-FFFD-41D3-96C2-2CCFEAA22561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{C22F59C3-15D7-42E6-A4A0-DF4EF43B82BA}"/>
+    <workbookView xWindow="6315" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{2E16264F-F09D-4182-AA9A-801F1C57EC1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="125">
   <si>
     <t>Nr gr. poc.</t>
   </si>
@@ -164,12 +164,12 @@
     <t>76537/6</t>
   </si>
   <si>
+    <t>66229/8</t>
+  </si>
+  <si>
     <t>Jelcz-Laskowice</t>
   </si>
   <si>
-    <t>66229/8</t>
-  </si>
-  <si>
     <t>60591/0</t>
   </si>
   <si>
@@ -257,7 +257,7 @@
     <t>[1-5]</t>
   </si>
   <si>
-    <t>[7]</t>
+    <t>[7]+</t>
   </si>
   <si>
     <t>815 10</t>
@@ -290,6 +290,12 @@
     <t>76539/8</t>
   </si>
   <si>
+    <t>H*1</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
     <t>67531/0</t>
   </si>
   <si>
@@ -317,6 +323,12 @@
     <t>67541/0</t>
   </si>
   <si>
+    <t>H*2</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
+  <si>
     <t>76531/0</t>
   </si>
   <si>
@@ -344,46 +356,61 @@
     <t>46541/0</t>
   </si>
   <si>
+    <t>60555/4</t>
+  </si>
+  <si>
+    <t>[1-4]</t>
+  </si>
+  <si>
+    <t>60533/2</t>
+  </si>
+  <si>
+    <t>[5]*4</t>
+  </si>
+  <si>
+    <t>64553/2</t>
+  </si>
+  <si>
+    <t>60565/4</t>
+  </si>
+  <si>
+    <t>[1]*3</t>
+  </si>
+  <si>
+    <t>60559/8</t>
+  </si>
+  <si>
+    <t>[2-5]-</t>
+  </si>
+  <si>
+    <t>64551/0</t>
+  </si>
+  <si>
+    <t>Częstochowa</t>
+  </si>
+  <si>
+    <t>60553/2</t>
+  </si>
+  <si>
+    <t>815 13</t>
+  </si>
+  <si>
+    <t>Brzeg</t>
+  </si>
+  <si>
     <t>60551/0</t>
   </si>
   <si>
     <t>60569/8</t>
   </si>
   <si>
-    <t>60555/4</t>
-  </si>
-  <si>
-    <t>[1-4]</t>
-  </si>
-  <si>
-    <t>60533/2</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>64553/2</t>
-  </si>
-  <si>
-    <t>60565/4</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>60559/8</t>
-  </si>
-  <si>
-    <t>[2-5]</t>
-  </si>
-  <si>
-    <t>64551/0</t>
-  </si>
-  <si>
-    <t>Częstochowa</t>
-  </si>
-  <si>
-    <t>60553/2</t>
+    <t>60411/0</t>
+  </si>
+  <si>
+    <t>60415/4</t>
+  </si>
+  <si>
+    <t>60417/6</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1339,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E36A749-8695-4482-A24C-3C98923655CC}">
-  <dimension ref="B1:M168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEA0100-6410-4CB7-90BA-D5037B876EB9}">
+  <dimension ref="B1:M177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>132.78200000000001</v>
+        <v>132.785</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1402,7 +1429,7 @@
         <v>17</v>
       </c>
       <c r="L3" s="3">
-        <v>0.31111111111111112</v>
+        <v>0.31180555555555556</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>18</v>
@@ -1416,7 +1443,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="5">
-        <v>36.987000000000002</v>
+        <v>36.984000000000002</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>19</v>
@@ -1468,13 +1495,13 @@
         <v>20</v>
       </c>
       <c r="J5" s="6">
-        <v>0.63055555555555554</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="6">
-        <v>0.67152777777777783</v>
+        <v>0.67291666666666661</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>18</v>
@@ -1488,7 +1515,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="5">
-        <v>100.04900000000001</v>
+        <v>100.04600000000001</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>13</v>
@@ -1510,7 +1537,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="6">
-        <v>0.75</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>18</v>
@@ -1524,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="5">
-        <v>132.785</v>
+        <v>132.78200000000001</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
@@ -1540,13 +1567,13 @@
         <v>17</v>
       </c>
       <c r="J7" s="6">
-        <v>0.7583333333333333</v>
+        <v>0.7597222222222223</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L7" s="6">
-        <v>0.84583333333333333</v>
+        <v>0.84652777777777777</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>18</v>
@@ -1582,7 +1609,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="6">
-        <v>0.28194444444444444</v>
+        <v>0.28263888888888888</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>18</v>
@@ -1612,265 +1639,265 @@
         <v>20</v>
       </c>
       <c r="J9" s="6">
-        <v>0.50347222222222221</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="6">
-        <v>0.60833333333333328</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
-        <v>7746</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="17">
+        <v>10830</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="5">
+        <v>155.65199999999999</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18">
+        <v>3437</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9">
+        <v>95.798000000000002</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="9">
+        <v>67955</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="39"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>6751</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7">
+        <v>99.094999999999999</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7">
+        <v>66372</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <v>6162</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5">
+        <v>153.858</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5">
+        <v>67403</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="34">
+        <v>6162</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="36">
         <v>0</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="37">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="37">
-        <v>0.6118055555555556</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
-        <v>10830</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5">
-        <v>155.65199999999999</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.65694444444444444</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0.75902777777777775</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18">
-        <v>3437</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="9">
-        <v>95.798000000000002</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="9">
-        <v>67955</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0.78680555555555554</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0.84583333333333333</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="43"/>
-    </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
-        <v>6751</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="E16" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="36">
+        <v>67403</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="37">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="37">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <v>3750</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7">
-        <v>99.094999999999999</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7">
-        <v>66372</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.17916666666666667</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0.25277777777777777</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
-        <v>6162</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>153.858</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5">
-        <v>67403</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5">
+        <v>76408</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="6">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
-        <v>6162</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="36">
-        <v>0</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="36">
-        <v>67403</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="37">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="37">
-        <v>0.4291666666666667</v>
-      </c>
-      <c r="M17" s="38" t="s">
+      <c r="J17" s="6">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="17">
-        <v>3750</v>
+        <v>6197</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -1882,61 +1909,61 @@
         <v>13</v>
       </c>
       <c r="F18" s="5">
-        <v>76408</v>
+        <v>67413</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="6">
-        <v>0.49513888888888885</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L18" s="6">
-        <v>0.60277777777777775</v>
+        <v>0.72430555555555554</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="17">
+      <c r="B19" s="34">
         <v>6197</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="5">
-        <v>153.858</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="D19" s="36">
+        <v>0</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="36">
         <v>67413</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="H19" s="36"/>
+      <c r="I19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="37">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="K19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="6">
-        <v>0.71597222222222223</v>
-      </c>
-      <c r="M19" s="12" t="s">
+      <c r="L19" s="37">
+        <v>0.73402777777777783</v>
+      </c>
+      <c r="M19" s="38" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1948,7 +1975,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="5">
-        <v>153.858</v>
+        <v>153.83000000000001</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>13</v>
@@ -1964,13 +1991,13 @@
         <v>32</v>
       </c>
       <c r="J20" s="6">
-        <v>0.73611111111111116</v>
+        <v>0.74930555555555556</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="6">
-        <v>0.84027777777777779</v>
+        <v>0.86388888888888893</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>31</v>
@@ -2006,7 +2033,7 @@
         <v>32</v>
       </c>
       <c r="L21" s="6">
-        <v>0.34027777777777773</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>31</v>
@@ -2042,7 +2069,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="37">
-        <v>0.34166666666666662</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="M22" s="38" t="s">
         <v>31</v>
@@ -2072,13 +2099,13 @@
         <v>32</v>
       </c>
       <c r="J23" s="6">
-        <v>0.39583333333333331</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="6">
-        <v>0.50624999999999998</v>
+        <v>0.50486111111111109</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>31</v>
@@ -2108,123 +2135,123 @@
         <v>20</v>
       </c>
       <c r="J24" s="6">
-        <v>0.66180555555555554</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L24" s="6">
-        <v>0.75694444444444453</v>
+        <v>0.76111111111111107</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
-        <v>3958</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="34">
+        <v>6204</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="5">
-        <v>54.762999999999998</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="5">
-        <v>76418</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="D25" s="36">
+        <v>0</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="36">
+        <v>67415</v>
+      </c>
+      <c r="G25" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
+      <c r="H25" s="36"/>
+      <c r="I25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="37">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="K25" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="6">
-        <v>0.77986111111111101</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0.81319444444444444</v>
-      </c>
-      <c r="M25" s="12" t="s">
+      <c r="L25" s="37">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="M25" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="17">
-        <v>6178</v>
+        <v>3958</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="5">
-        <v>153.858</v>
+        <v>54.762999999999998</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F26" s="5">
-        <v>67409</v>
+        <v>76418</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J26" s="6">
-        <v>0.53541666666666665</v>
+        <v>0.7715277777777777</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L26" s="6">
-        <v>0.63958333333333328</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="34">
+      <c r="B27" s="17">
         <v>6178</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="36">
-        <v>0</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="36">
+      <c r="D27" s="5">
+        <v>153.858</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="5">
         <v>67409</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="37">
-        <v>0.53541666666666665</v>
-      </c>
-      <c r="K27" s="36" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="37">
-        <v>0.64027777777777783</v>
-      </c>
-      <c r="M27" s="38" t="s">
+      <c r="L27" s="6">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2252,13 +2279,13 @@
         <v>20</v>
       </c>
       <c r="J28" s="37">
-        <v>0.53541666666666665</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="K28" s="36" t="s">
         <v>32</v>
       </c>
       <c r="L28" s="37">
-        <v>0.64097222222222217</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="M28" s="38" t="s">
         <v>31</v>
@@ -2288,185 +2315,185 @@
         <v>32</v>
       </c>
       <c r="J29" s="6">
-        <v>0.66249999999999998</v>
+        <v>0.66180555555555554</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="6">
-        <v>0.77083333333333337</v>
+        <v>0.77430555555555547</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="34">
-        <v>3753</v>
-      </c>
-      <c r="C30" s="35" t="s">
+    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="18">
+        <v>6698</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="36">
-        <v>0</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="36">
-        <v>76412</v>
-      </c>
-      <c r="G30" s="36" t="s">
+      <c r="D30" s="9">
+        <v>99.094999999999999</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="9">
+        <v>66425</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="37">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="37">
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="M30" s="38" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.87083333333333324</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="M30" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="18">
-        <v>6698</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="9">
-        <v>99.094999999999999</v>
-      </c>
-      <c r="E31" s="9" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="43"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="39"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="47"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="16">
+        <v>6852</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="7">
+        <v>57.561999999999998</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="9">
-        <v>66425</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0.86875000000000002</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0.93125000000000002</v>
-      </c>
-      <c r="M31" s="13" t="s">
+      <c r="F33" s="7">
+        <v>66651</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="M33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="43"/>
-    </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="39"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="47"/>
-    </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="16">
-        <v>6852</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="B34" s="17">
+        <v>3317</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="7">
-        <v>57.561999999999998</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="7">
-        <v>66651</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="D34" s="5">
+        <v>222.02</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0.17430555555555557</v>
-      </c>
-      <c r="K34" s="7" t="s">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="8">
-        <v>0.20902777777777778</v>
-      </c>
-      <c r="M34" s="11" t="s">
+      <c r="J34" s="6">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="M34" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="5">
-        <v>222.02</v>
+        <v>164.45500000000001</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>35</v>
+      <c r="F35" s="5">
+        <v>67921</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J35" s="6">
-        <v>0.22916666666666666</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="6">
-        <v>0.38055555555555554</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="M35" s="12" t="s">
         <v>31</v>
@@ -2474,7 +2501,7 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="17">
-        <v>3320</v>
+        <v>3316</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>33</v>
@@ -2486,23 +2513,23 @@
         <v>13</v>
       </c>
       <c r="F36" s="5">
-        <v>67921</v>
+        <v>76934</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J36" s="6">
-        <v>0.28263888888888888</v>
+        <v>0.4465277777777778</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L36" s="6">
-        <v>0.38055555555555554</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="M36" s="12" t="s">
         <v>31</v>
@@ -2510,7 +2537,7 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
-        <v>3316</v>
+        <v>3328</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -2522,161 +2549,161 @@
         <v>13</v>
       </c>
       <c r="F37" s="5">
-        <v>76934</v>
+        <v>67929</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="6">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L37" s="6">
-        <v>0.54861111111111105</v>
+        <v>0.72083333333333333</v>
       </c>
       <c r="M37" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="17">
-        <v>3328</v>
-      </c>
-      <c r="C38" s="4" t="s">
+    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="18">
+        <v>3323</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="9">
         <v>164.45500000000001</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="5">
-        <v>67929</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="E38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="9">
+        <v>76940</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0.61527777777777781</v>
-      </c>
-      <c r="K38" s="5" t="s">
+      <c r="H38" s="9"/>
+      <c r="I38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L38" s="6">
-        <v>0.71319444444444446</v>
-      </c>
-      <c r="M38" s="12" t="s">
+      <c r="J38" s="10">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="10">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="M38" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="18">
-        <v>3323</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="9">
-        <v>164.45500000000001</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="9">
-        <v>76940</v>
-      </c>
-      <c r="G39" s="9" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="43"/>
+    </row>
+    <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="39"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="16">
+        <v>6137</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="7">
+        <v>54.762999999999998</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="7">
+        <v>67431</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" s="10">
-        <v>0.78125</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="10">
-        <v>0.88055555555555554</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="43"/>
-    </row>
-    <row r="41" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="39"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="47"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="16">
+      <c r="B42" s="34">
         <v>6137</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="7">
-        <v>54.762999999999998</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="7">
+      <c r="D42" s="36">
+        <v>0</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="36">
         <v>67431</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7" t="s">
+      <c r="H42" s="36"/>
+      <c r="I42" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J42" s="8">
-        <v>0.22152777777777777</v>
-      </c>
-      <c r="K42" s="7" t="s">
+      <c r="J42" s="37">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="K42" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L42" s="8">
-        <v>0.25486111111111109</v>
-      </c>
-      <c r="M42" s="11" t="s">
+      <c r="L42" s="37">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="M42" s="38" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2704,123 +2731,123 @@
         <v>32</v>
       </c>
       <c r="J43" s="6">
-        <v>0.28888888888888892</v>
+        <v>0.3</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L43" s="6">
-        <v>0.39652777777777781</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="M43" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="17">
-        <v>3248</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="34">
+        <v>3746</v>
+      </c>
+      <c r="C44" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="5">
-        <v>102.229</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0.51874999999999993</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L44" s="6">
-        <v>0.59444444444444444</v>
-      </c>
-      <c r="M44" s="12" t="s">
+      <c r="D44" s="36">
+        <v>0</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="36">
+        <v>76402</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="37">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="37">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="M44" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="17">
-        <v>3217</v>
+        <v>3248</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="5">
-        <v>105.34099999999999</v>
+        <v>102.229</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J45" s="6">
-        <v>0.60763888888888895</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L45" s="6">
-        <v>0.69236111111111109</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="M45" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="34">
-        <v>12883</v>
-      </c>
-      <c r="C46" s="35" t="s">
+      <c r="B46" s="17">
+        <v>3217</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="36">
-        <v>0</v>
-      </c>
-      <c r="E46" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="36" t="s">
+      <c r="D46" s="5">
+        <v>105.34099999999999</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36" t="s">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J46" s="37">
-        <v>0.60763888888888895</v>
-      </c>
-      <c r="K46" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="L46" s="37">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="M46" s="38" t="s">
+      <c r="J46" s="6">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="M46" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2838,7 +2865,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>15</v>
@@ -2848,13 +2875,13 @@
         <v>20</v>
       </c>
       <c r="J47" s="6">
-        <v>0.72222222222222221</v>
+        <v>0.72361111111111109</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L47" s="6">
-        <v>0.74375000000000002</v>
+        <v>0.74583333333333324</v>
       </c>
       <c r="M47" s="12" t="s">
         <v>38</v>
@@ -2881,10 +2908,10 @@
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J48" s="6">
-        <v>0.80347222222222225</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>20</v>
@@ -2920,13 +2947,13 @@
         <v>20</v>
       </c>
       <c r="J49" s="6">
-        <v>0.86875000000000002</v>
+        <v>0.87083333333333324</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L49" s="6">
-        <v>0.93125000000000002</v>
+        <v>0.93611111111111101</v>
       </c>
       <c r="M49" s="12" t="s">
         <v>38</v>
@@ -2956,13 +2983,13 @@
         <v>20</v>
       </c>
       <c r="J50" s="6">
-        <v>0.44097222222222227</v>
+        <v>0.4375</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>45</v>
       </c>
       <c r="L50" s="6">
-        <v>0.48055555555555557</v>
+        <v>0.4770833333333333</v>
       </c>
       <c r="M50" s="12" t="s">
         <v>38</v>
@@ -2992,7 +3019,7 @@
         <v>45</v>
       </c>
       <c r="J51" s="6">
-        <v>0.58819444444444446</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>20</v>
@@ -3028,265 +3055,265 @@
         <v>20</v>
       </c>
       <c r="J52" s="6">
-        <v>0.66180555555555554</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L52" s="6">
-        <v>0.75694444444444453</v>
+        <v>0.76180555555555562</v>
       </c>
       <c r="M52" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="18">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="34">
+        <v>6207</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="36">
+        <v>0</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="36">
+        <v>67417</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="37">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="37">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="M53" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="34">
+        <v>6207</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="36">
+        <v>0</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="36">
+        <v>67417</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="37">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="37">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="M54" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="18">
         <v>3958</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D55" s="9">
         <v>54.762999999999998</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E55" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F55" s="9">
         <v>76418</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J53" s="10">
-        <v>0.77986111111111101</v>
-      </c>
-      <c r="K53" s="9" t="s">
+      <c r="J55" s="10">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="K55" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="10">
-        <v>0.81319444444444444</v>
-      </c>
-      <c r="M53" s="13" t="s">
+      <c r="L55" s="10">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="M55" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="43"/>
-    </row>
-    <row r="55" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="39"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="47"/>
-    </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="16">
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="43"/>
+    </row>
+    <row r="57" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="39"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="47"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="16">
         <v>6837</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D58" s="7">
         <v>58.72</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F58" s="7">
         <v>66462</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7" t="s">
+      <c r="H58" s="7"/>
+      <c r="I58" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J58" s="8">
         <v>0.22777777777777777</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" s="8">
-        <v>0.27638888888888885</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="17">
-        <v>7664</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="5">
-        <v>155.602</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="6">
-        <v>0.32361111111111113</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L57" s="6">
-        <v>0.41805555555555557</v>
-      </c>
-      <c r="M57" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="17">
-        <v>10829</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="5">
-        <v>155.65199999999999</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J58" s="6">
-        <v>0.58124999999999993</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" s="6">
-        <v>0.6791666666666667</v>
-      </c>
-      <c r="M58" s="12" t="s">
+      <c r="K58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="M58" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="17">
-        <v>6162</v>
+        <v>7664</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D59" s="5">
-        <v>153.858</v>
+        <v>155.602</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="5">
-        <v>67403</v>
+      <c r="F59" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J59" s="6">
-        <v>0.3298611111111111</v>
+        <v>0.32361111111111113</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L59" s="6">
-        <v>0.42430555555555555</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="M59" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="34">
-        <v>6162</v>
-      </c>
-      <c r="C60" s="35" t="s">
+      <c r="B60" s="17">
+        <v>10829</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="36">
-        <v>0</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="36">
-        <v>67403</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="37">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="K60" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="37">
-        <v>0.4291666666666667</v>
-      </c>
-      <c r="M60" s="38" t="s">
+      <c r="D60" s="5">
+        <v>155.65199999999999</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="M60" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="17">
-        <v>3750</v>
+        <v>6162</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>47</v>
@@ -3298,67 +3325,67 @@
         <v>13</v>
       </c>
       <c r="F61" s="5">
-        <v>76408</v>
+        <v>67403</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="K61" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J61" s="6">
-        <v>0.49513888888888885</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L61" s="6">
-        <v>0.60277777777777775</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="M61" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="17">
-        <v>6233</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="B62" s="34">
+        <v>6162</v>
+      </c>
+      <c r="C62" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="5">
-        <v>153.858</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="5">
-        <v>67419</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="6">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="K62" s="5" t="s">
+      <c r="D62" s="36">
+        <v>0</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="36">
+        <v>67403</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="37">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="K62" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L62" s="6">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="M62" s="12" t="s">
+      <c r="L62" s="37">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="M62" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="17">
-        <v>3961</v>
+        <v>3750</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>47</v>
@@ -3370,23 +3397,23 @@
         <v>13</v>
       </c>
       <c r="F63" s="5">
-        <v>76420</v>
+        <v>76408</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J63" s="6">
-        <v>0.83750000000000002</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L63" s="6">
-        <v>0.94305555555555554</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="M63" s="12" t="s">
         <v>50</v>
@@ -3394,19 +3421,19 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="17">
-        <v>6718</v>
+        <v>6233</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D64" s="5">
-        <v>58.72</v>
+        <v>153.858</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F64" s="5">
-        <v>66439</v>
+        <v>67419</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>29</v>
@@ -3416,157 +3443,157 @@
         <v>20</v>
       </c>
       <c r="J64" s="6">
-        <v>0.95486111111111116</v>
+        <v>0.70277777777777783</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L64" s="6">
-        <v>0.99375000000000002</v>
+        <v>0.8125</v>
       </c>
       <c r="M64" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="17">
-        <v>6745</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="B65" s="34">
+        <v>6233</v>
+      </c>
+      <c r="C65" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="5">
-        <v>58.72</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="5">
-        <v>66460</v>
-      </c>
-      <c r="G65" s="5" t="s">
+      <c r="D65" s="36">
+        <v>0</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="36">
+        <v>67419</v>
+      </c>
+      <c r="G65" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J65" s="6">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" s="6">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="M65" s="12" t="s">
+      <c r="H65" s="36"/>
+      <c r="I65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="37">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="K65" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" s="37">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="M65" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="17">
-        <v>6157</v>
+        <v>3961</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D66" s="5">
-        <v>40.369</v>
+        <v>153.858</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F66" s="5">
-        <v>66451</v>
+        <v>76420</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J66" s="6">
-        <v>0.27638888888888885</v>
+        <v>0.83680555555555547</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="L66" s="6">
-        <v>0.30486111111111108</v>
+        <v>0.94444444444444453</v>
       </c>
       <c r="M66" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="34">
-        <v>6157</v>
-      </c>
-      <c r="C67" s="35" t="s">
+      <c r="B67" s="17">
+        <v>6718</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="36">
-        <v>0</v>
-      </c>
-      <c r="E67" s="36" t="s">
+      <c r="D67" s="5">
+        <v>58.72</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="36">
-        <v>66451</v>
-      </c>
-      <c r="G67" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" s="37">
-        <v>0.28333333333333333</v>
-      </c>
-      <c r="K67" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="L67" s="37">
-        <v>0.31527777777777777</v>
-      </c>
-      <c r="M67" s="38" t="s">
+      <c r="F67" s="5">
+        <v>66439</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0.95416666666666661</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0.99583333333333324</v>
+      </c>
+      <c r="M67" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="17">
-        <v>6844</v>
+        <v>6745</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D68" s="5">
-        <v>40.369</v>
+        <v>58.72</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F68" s="5">
-        <v>66440</v>
+        <v>66460</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J68" s="6">
-        <v>0.32777777777777778</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L68" s="6">
-        <v>0.3611111111111111</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="M68" s="12" t="s">
         <v>50</v>
@@ -3574,19 +3601,19 @@
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="17">
-        <v>6226</v>
+        <v>6157</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D69" s="5">
-        <v>58.72</v>
+        <v>40.369</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F69" s="5">
-        <v>66435</v>
+        <v>66451</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>15</v>
@@ -3596,13 +3623,13 @@
         <v>20</v>
       </c>
       <c r="J69" s="6">
-        <v>0.67638888888888893</v>
+        <v>0.28402777777777777</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L69" s="6">
-        <v>0.71527777777777779</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="M69" s="12" t="s">
         <v>50</v>
@@ -3610,415 +3637,415 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="17">
-        <v>6848</v>
+        <v>6844</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D70" s="5">
-        <v>58.72</v>
+        <v>40.369</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="5">
-        <v>66468</v>
+        <v>66440</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J70" s="6">
-        <v>0.8305555555555556</v>
+        <v>0.3354166666666667</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L70" s="6">
-        <v>0.87777777777777777</v>
+        <v>0.36944444444444446</v>
       </c>
       <c r="M70" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="18">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="17">
+        <v>6226</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="5">
+        <v>58.72</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="5">
+        <v>66435</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="6">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="17">
+        <v>6848</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="5">
+        <v>58.72</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="5">
+        <v>66468</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="18">
         <v>6706</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D73" s="9">
         <v>58.72</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E73" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F73" s="9">
         <v>66437</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G73" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="10">
-        <v>0.90833333333333333</v>
-      </c>
-      <c r="K71" s="9" t="s">
+      <c r="H73" s="9"/>
+      <c r="I73" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="10">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="K73" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L71" s="10">
-        <v>0.9472222222222223</v>
-      </c>
-      <c r="M71" s="13" t="s">
+      <c r="L73" s="10">
+        <v>0.95208333333333339</v>
+      </c>
+      <c r="M73" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="39"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="43"/>
-    </row>
-    <row r="73" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="39"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="47"/>
-    </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="16">
+      <c r="B74" s="39"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="43"/>
+    </row>
+    <row r="75" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="39"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="47"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="16">
         <v>7093</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D76" s="7">
         <v>148.21600000000001</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="7" t="s">
+      <c r="E76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J74" s="8">
+      <c r="H76" s="7"/>
+      <c r="I76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="8">
         <v>0.23124999999999998</v>
       </c>
-      <c r="K74" s="7" t="s">
+      <c r="K76" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L76" s="8">
         <v>0.35486111111111113</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M76" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="17">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="17">
         <v>9930</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D77" s="5">
         <v>148.18299999999999</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="5" t="s">
+      <c r="E77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5" t="s">
+      <c r="H77" s="5"/>
+      <c r="I77" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J77" s="6">
         <v>0.42708333333333331</v>
       </c>
-      <c r="K75" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L75" s="6">
+      <c r="K77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="6">
         <v>0.5444444444444444</v>
       </c>
-      <c r="M75" s="12" t="s">
+      <c r="M77" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="17">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="17">
         <v>7156</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D78" s="5">
         <v>148.21600000000001</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="5" t="s">
+      <c r="E78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="6">
+      <c r="H78" s="5"/>
+      <c r="I78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="6">
         <v>0.60763888888888895</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="K78" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L76" s="6">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="M76" s="12" t="s">
+      <c r="L78" s="6">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="M78" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="18">
+    <row r="79" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="18">
         <v>9933</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D79" s="9">
         <v>148.18299999999999</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="9" t="s">
+      <c r="E79" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G79" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9" t="s">
+      <c r="H79" s="9"/>
+      <c r="I79" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J79" s="10">
         <v>0.76250000000000007</v>
       </c>
-      <c r="K77" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L77" s="10">
-        <v>0.88402777777777775</v>
-      </c>
-      <c r="M77" s="13" t="s">
+      <c r="K79" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" s="10">
+        <v>0.8847222222222223</v>
+      </c>
+      <c r="M79" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="39"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="43"/>
-    </row>
-    <row r="79" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="39"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="47"/>
-    </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="16">
+      <c r="B80" s="39"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="43"/>
+    </row>
+    <row r="81" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="39"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="47"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="16">
         <v>3302</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D82" s="7">
         <v>95.798000000000002</v>
       </c>
-      <c r="E80" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="7">
+      <c r="E82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="7">
         <v>76920</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7" t="s">
+      <c r="H82" s="7"/>
+      <c r="I82" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J80" s="8">
-        <v>0.20486111111111113</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L80" s="8">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="M80" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="17">
-        <v>3308</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="5">
-        <v>95.798000000000002</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="5">
-        <v>76952</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" s="6">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" s="6">
-        <v>0.38611111111111113</v>
-      </c>
-      <c r="M81" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="17">
-        <v>6183</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" s="5">
-        <v>153.858</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="5">
-        <v>67411</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="6">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="6">
-        <v>0.67291666666666661</v>
-      </c>
-      <c r="M82" s="12" t="s">
+      <c r="J82" s="8">
+        <v>0.20347222222222219</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="8">
+        <v>0.25972222222222224</v>
+      </c>
+      <c r="M82" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="17">
-        <v>3755</v>
+        <v>3308</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D83" s="5">
-        <v>153.83000000000001</v>
+        <v>95.798000000000002</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="5">
-        <v>76414</v>
+        <v>76952</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J83" s="6">
-        <v>0.69097222222222221</v>
+        <v>0.33402777777777781</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L83" s="6">
-        <v>0.79791666666666661</v>
+        <v>0.39027777777777778</v>
       </c>
       <c r="M83" s="12" t="s">
         <v>50</v>
@@ -4026,631 +4053,631 @@
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="17">
-        <v>3449</v>
+        <v>6183</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D84" s="5">
-        <v>95.798000000000002</v>
+        <v>153.858</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="5">
-        <v>67959</v>
+        <v>67411</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J84" s="6">
-        <v>0.8652777777777777</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L84" s="6">
-        <v>0.92083333333333339</v>
+        <v>0.6743055555555556</v>
       </c>
       <c r="M84" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="18">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="34">
+        <v>6183</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="36">
+        <v>0</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="36">
+        <v>67411</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="37">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K85" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L85" s="37">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="M85" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="17">
+        <v>3755</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="5">
+        <v>153.858</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="5">
+        <v>76414</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" s="6">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="6">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="M86" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="17">
+        <v>3449</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" s="5">
+        <v>95.798000000000002</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="5">
+        <v>67959</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="6">
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="6">
+        <v>0.92222222222222217</v>
+      </c>
+      <c r="M87" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="18">
         <v>3444</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D88" s="9">
         <v>95.798000000000002</v>
       </c>
-      <c r="E85" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="9">
+      <c r="E88" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="9">
         <v>67937</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G88" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="10">
-        <v>0.8208333333333333</v>
-      </c>
-      <c r="K85" s="9" t="s">
+      <c r="H88" s="9"/>
+      <c r="I88" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="10">
+        <v>0.82430555555555562</v>
+      </c>
+      <c r="K88" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L85" s="10">
-        <v>0.87638888888888899</v>
-      </c>
-      <c r="M85" s="13" t="s">
+      <c r="L88" s="10">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="M88" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="39"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="43"/>
-    </row>
-    <row r="87" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="39"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="47"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="16">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="39"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="43"/>
+    </row>
+    <row r="90" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="39"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="47"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="16">
         <v>7498</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C91" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D91" s="7">
         <v>123.376</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="7" t="s">
+      <c r="E91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J88" s="8">
+      <c r="H91" s="7"/>
+      <c r="I91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" s="8">
         <v>0.23263888888888887</v>
       </c>
-      <c r="K88" s="7" t="s">
+      <c r="K91" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L88" s="8">
+      <c r="L91" s="8">
         <v>0.32083333333333336</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="M91" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="17">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="17">
         <v>5483</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D92" s="5">
         <v>123.392</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="5">
+      <c r="E92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="5">
         <v>46227</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5" t="s">
+      <c r="H92" s="5"/>
+      <c r="I92" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J92" s="6">
         <v>0.35138888888888892</v>
       </c>
-      <c r="K89" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L89" s="6">
+      <c r="K92" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L92" s="6">
         <v>0.43333333333333335</v>
       </c>
-      <c r="M89" s="12" t="s">
+      <c r="M92" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="17">
-        <v>6174</v>
-      </c>
-      <c r="C90" s="4" t="s">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="34">
+        <v>5483</v>
+      </c>
+      <c r="C93" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="5">
-        <v>153.858</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="5">
-        <v>67407</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J90" s="6">
-        <v>0.53541666666666665</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L90" s="6">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="M90" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="17">
-        <v>3754</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="5">
-        <v>153.858</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="5">
-        <v>76412</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J91" s="6">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L91" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="M91" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="34">
-        <v>3753</v>
-      </c>
-      <c r="C92" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" s="36">
+      <c r="D93" s="36">
         <v>0</v>
       </c>
-      <c r="E92" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="36">
-        <v>76412</v>
-      </c>
-      <c r="G92" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J92" s="37">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="K92" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L92" s="37">
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="M92" s="38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="17">
-        <v>7803</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="5">
-        <v>155.602</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J93" s="6">
-        <v>0.59305555555555556</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L93" s="6">
-        <v>0.69930555555555562</v>
-      </c>
-      <c r="M93" s="12" t="s">
+      <c r="E93" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="36">
+        <v>46227</v>
+      </c>
+      <c r="G93" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="J93" s="37">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="K93" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" s="37">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="M93" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="17">
-        <v>10833</v>
+        <v>6174</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D94" s="5">
-        <v>155.65199999999999</v>
+        <v>153.858</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>67</v>
+      <c r="F94" s="5">
+        <v>67407</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J94" s="6">
-        <v>0.75069444444444444</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="L94" s="6">
-        <v>0.8569444444444444</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="M94" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="49">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="34">
+        <v>6174</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="36">
+        <v>0</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="36">
+        <v>67407</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="37">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="K95" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L95" s="37">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="M95" s="38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="17">
+        <v>3754</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="5">
+        <v>153.858</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="5">
+        <v>76412</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J96" s="6">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" s="6">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="M96" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="17">
+        <v>7803</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="5">
+        <v>155.602</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L97" s="6">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="17">
+        <v>10833</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="5">
+        <v>155.65199999999999</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" s="6">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L98" s="6">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="M98" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="49">
         <v>10819</v>
       </c>
-      <c r="C95" s="50" t="s">
+      <c r="C99" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D95" s="51">
+      <c r="D99" s="51">
         <v>0</v>
       </c>
-      <c r="E95" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="51" t="s">
+      <c r="E99" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="G95" s="51" t="s">
+      <c r="G99" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H95" s="51"/>
-      <c r="I95" s="51" t="s">
+      <c r="H99" s="51"/>
+      <c r="I99" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J95" s="52">
+      <c r="J99" s="52">
         <v>0.8965277777777777</v>
       </c>
-      <c r="K95" s="51" t="s">
+      <c r="K99" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="L95" s="52">
+      <c r="L99" s="52">
         <v>0.95000000000000007</v>
       </c>
-      <c r="M95" s="53" t="s">
+      <c r="M99" s="53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="48"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="55"/>
-      <c r="J96" s="56"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="57"/>
-    </row>
-    <row r="97" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="48"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
-      <c r="J97" s="60"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="61"/>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="16">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="48"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="56"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="57"/>
+    </row>
+    <row r="101" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="48"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="59"/>
+      <c r="L101" s="60"/>
+      <c r="M101" s="61"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="16">
         <v>3745</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C102" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D102" s="7">
         <v>153.858</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="7">
+      <c r="E102" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="7">
         <v>76400</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7" t="s">
+      <c r="H102" s="7"/>
+      <c r="I102" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J98" s="8">
-        <v>0.23402777777777781</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L98" s="8">
-        <v>0.34166666666666662</v>
-      </c>
-      <c r="M98" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B99" s="17">
-        <v>6190</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D99" s="5">
-        <v>40.369</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" s="5">
-        <v>66453</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J99" s="6">
-        <v>0.60277777777777775</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L99" s="6">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="M99" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B100" s="17">
-        <v>6846</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="5">
-        <v>77.355999999999995</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J100" s="6">
-        <v>0.64861111111111114</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L100" s="6">
-        <v>0.70694444444444438</v>
-      </c>
-      <c r="M100" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="34">
-        <v>6846</v>
-      </c>
-      <c r="C101" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="36">
-        <v>0</v>
-      </c>
-      <c r="E101" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G101" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="J101" s="37">
-        <v>0.65</v>
-      </c>
-      <c r="K101" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="L101" s="37">
-        <v>0.70694444444444438</v>
-      </c>
-      <c r="M101" s="38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="17">
-        <v>5994</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D102" s="5">
-        <v>136.08199999999999</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J102" s="6">
-        <v>0.71458333333333324</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L102" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="M102" s="12" t="s">
+      <c r="J102" s="8">
+        <v>0.22361111111111109</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" s="8">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="M102" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="17">
-        <v>6241</v>
+        <v>6190</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D103" s="5">
-        <v>99.094999999999999</v>
+        <v>40.369</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F103" s="5">
-        <v>66419</v>
+        <v>66453</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J103" s="6">
-        <v>0.74791666666666667</v>
+        <v>0.60277777777777775</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L103" s="6">
-        <v>0.8125</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="M103" s="12" t="s">
         <v>65</v>
@@ -4658,107 +4685,107 @@
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="17">
-        <v>6142</v>
+        <v>6846</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D104" s="5">
-        <v>54.762999999999998</v>
+        <v>77.355999999999995</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="5">
-        <v>67433</v>
+        <v>19</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J104" s="6">
-        <v>0.27083333333333331</v>
+        <v>0.63958333333333328</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L104" s="6">
-        <v>0.3034722222222222</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="34">
-        <v>6142</v>
-      </c>
-      <c r="C105" s="35" t="s">
+      <c r="B105" s="17">
+        <v>5994</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D105" s="36">
-        <v>0</v>
-      </c>
-      <c r="E105" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="36">
-        <v>67433</v>
-      </c>
-      <c r="G105" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36" t="s">
+      <c r="D105" s="5">
+        <v>136.07900000000001</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" s="6">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="K105" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J105" s="37">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="K105" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L105" s="37">
-        <v>0.30694444444444441</v>
-      </c>
-      <c r="M105" s="38" t="s">
+      <c r="L105" s="6">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="M105" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="17">
-        <v>3747</v>
+        <v>6241</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D106" s="5">
-        <v>153.858</v>
+        <v>99.094999999999999</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F106" s="5">
-        <v>76404</v>
+        <v>66419</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J106" s="6">
-        <v>0.31666666666666665</v>
+        <v>0.74791666666666667</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L106" s="6">
-        <v>0.43402777777777773</v>
+        <v>0.81319444444444444</v>
       </c>
       <c r="M106" s="12" t="s">
         <v>65</v>
@@ -4766,35 +4793,35 @@
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="17">
-        <v>6168</v>
+        <v>6142</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D107" s="5">
-        <v>153.858</v>
+        <v>54.762999999999998</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F107" s="5">
-        <v>67405</v>
+        <v>67433</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J107" s="6">
-        <v>0.4513888888888889</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="K107" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L107" s="6">
-        <v>0.54861111111111105</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="M107" s="12" t="s">
         <v>65</v>
@@ -4802,7 +4829,7 @@
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="34">
-        <v>6168</v>
+        <v>6142</v>
       </c>
       <c r="C108" s="35" t="s">
         <v>69</v>
@@ -4814,23 +4841,23 @@
         <v>13</v>
       </c>
       <c r="F108" s="36">
-        <v>67405</v>
+        <v>67433</v>
       </c>
       <c r="G108" s="36" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H108" s="36"/>
       <c r="I108" s="36" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J108" s="37">
-        <v>0.4513888888888889</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="K108" s="36" t="s">
         <v>32</v>
       </c>
       <c r="L108" s="37">
-        <v>0.5493055555555556</v>
+        <v>0.30694444444444441</v>
       </c>
       <c r="M108" s="38" t="s">
         <v>65</v>
@@ -4838,7 +4865,7 @@
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="17">
-        <v>3751</v>
+        <v>3747</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>69</v>
@@ -4850,23 +4877,23 @@
         <v>13</v>
       </c>
       <c r="F109" s="5">
-        <v>76410</v>
+        <v>76404</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J109" s="6">
-        <v>0.57777777777777783</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="K109" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L109" s="6">
-        <v>0.68263888888888891</v>
+        <v>0.4465277777777778</v>
       </c>
       <c r="M109" s="12" t="s">
         <v>65</v>
@@ -4874,7 +4901,7 @@
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="34">
-        <v>3752</v>
+        <v>3747</v>
       </c>
       <c r="C110" s="35" t="s">
         <v>69</v>
@@ -4886,67 +4913,67 @@
         <v>13</v>
       </c>
       <c r="F110" s="36">
-        <v>76410</v>
+        <v>76404</v>
       </c>
       <c r="G110" s="36" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H110" s="36"/>
       <c r="I110" s="36" t="s">
         <v>32</v>
       </c>
       <c r="J110" s="37">
-        <v>0.60555555555555551</v>
+        <v>0.33263888888888887</v>
       </c>
       <c r="K110" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L110" s="37">
-        <v>0.71250000000000002</v>
+        <v>0.4465277777777778</v>
       </c>
       <c r="M110" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="34">
-        <v>3752</v>
-      </c>
-      <c r="C111" s="35" t="s">
+      <c r="B111" s="17">
+        <v>6168</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D111" s="36">
-        <v>0</v>
-      </c>
-      <c r="E111" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" s="36">
-        <v>76410</v>
-      </c>
-      <c r="G111" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36" t="s">
+      <c r="D111" s="5">
+        <v>153.858</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="5">
+        <v>67405</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J111" s="6">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="K111" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J111" s="37">
-        <v>0.60555555555555551</v>
-      </c>
-      <c r="K111" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L111" s="37">
-        <v>0.71388888888888891</v>
-      </c>
-      <c r="M111" s="38" t="s">
+      <c r="L111" s="6">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="M111" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="34">
-        <v>3751</v>
+        <v>6168</v>
       </c>
       <c r="C112" s="35" t="s">
         <v>69</v>
@@ -4958,23 +4985,23 @@
         <v>13</v>
       </c>
       <c r="F112" s="36">
-        <v>76410</v>
+        <v>67405</v>
       </c>
       <c r="G112" s="36" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H112" s="36"/>
       <c r="I112" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" s="37">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="K112" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J112" s="37">
-        <v>0.57777777777777783</v>
-      </c>
-      <c r="K112" s="36" t="s">
-        <v>20</v>
-      </c>
       <c r="L112" s="37">
-        <v>0.68611111111111101</v>
+        <v>0.56527777777777777</v>
       </c>
       <c r="M112" s="38" t="s">
         <v>65</v>
@@ -4997,20 +5024,20 @@
         <v>76410</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J113" s="6">
-        <v>0.57777777777777783</v>
+        <v>0.57708333333333328</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L113" s="6">
-        <v>0.68263888888888891</v>
+        <v>0.68611111111111101</v>
       </c>
       <c r="M113" s="12" t="s">
         <v>65</v>
@@ -5033,64 +5060,64 @@
         <v>76410</v>
       </c>
       <c r="G114" s="36" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H114" s="36"/>
       <c r="I114" s="36" t="s">
         <v>32</v>
       </c>
       <c r="J114" s="37">
-        <v>0.60555555555555551</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="K114" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L114" s="37">
-        <v>0.71250000000000002</v>
+        <v>0.71319444444444446</v>
       </c>
       <c r="M114" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="34">
-        <v>3752</v>
-      </c>
-      <c r="C115" s="35" t="s">
+      <c r="B115" s="17">
+        <v>3751</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D115" s="36">
-        <v>0</v>
-      </c>
-      <c r="E115" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="36">
+      <c r="D115" s="5">
+        <v>153.858</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="5">
         <v>76410</v>
       </c>
-      <c r="G115" s="36" t="s">
+      <c r="G115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36" t="s">
+      <c r="H115" s="5"/>
+      <c r="I115" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J115" s="37">
-        <v>0.60555555555555551</v>
-      </c>
-      <c r="K115" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L115" s="37">
-        <v>0.71388888888888891</v>
-      </c>
-      <c r="M115" s="38" t="s">
+      <c r="J115" s="6">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115" s="6">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="M115" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="34">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="C116" s="35" t="s">
         <v>69</v>
@@ -5112,185 +5139,185 @@
         <v>32</v>
       </c>
       <c r="J116" s="37">
-        <v>0.57777777777777783</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="K116" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L116" s="37">
-        <v>0.68611111111111101</v>
+        <v>0.71319444444444446</v>
       </c>
       <c r="M116" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="18">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="17">
         <v>6685</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="5">
         <v>153.858</v>
       </c>
-      <c r="E117" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="9">
+      <c r="E117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="5">
         <v>67421</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J117" s="10">
-        <v>0.8305555555555556</v>
-      </c>
-      <c r="K117" s="9" t="s">
+      <c r="H117" s="5"/>
+      <c r="I117" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" s="6">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="K117" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L117" s="10">
+      <c r="L117" s="6">
         <v>0.93263888888888891</v>
       </c>
-      <c r="M117" s="13" t="s">
+      <c r="M117" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="39"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="42"/>
-      <c r="K118" s="41"/>
-      <c r="L118" s="42"/>
-      <c r="M118" s="43"/>
-    </row>
-    <row r="119" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="39"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="45"/>
-      <c r="J119" s="46"/>
-      <c r="K119" s="45"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="47"/>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="16">
+    <row r="118" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="49">
+        <v>6685</v>
+      </c>
+      <c r="C118" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D118" s="51">
+        <v>0</v>
+      </c>
+      <c r="E118" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="51">
+        <v>67421</v>
+      </c>
+      <c r="G118" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" s="51"/>
+      <c r="I118" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J118" s="52">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="K118" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="L118" s="52">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="M118" s="53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="48"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="55"/>
+      <c r="J119" s="56"/>
+      <c r="K119" s="55"/>
+      <c r="L119" s="56"/>
+      <c r="M119" s="57"/>
+    </row>
+    <row r="120" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="48"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="59"/>
+      <c r="G120" s="59"/>
+      <c r="H120" s="59"/>
+      <c r="I120" s="59"/>
+      <c r="J120" s="60"/>
+      <c r="K120" s="59"/>
+      <c r="L120" s="60"/>
+      <c r="M120" s="61"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="16">
         <v>9909</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C121" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D121" s="7">
         <v>97.319000000000003</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="7" t="s">
+      <c r="E121" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7" t="s">
+      <c r="H121" s="7"/>
+      <c r="I121" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J120" s="8">
-        <v>0.62708333333333333</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L120" s="8">
-        <v>0.71458333333333324</v>
-      </c>
-      <c r="M120" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B121" s="17">
-        <v>9906</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D121" s="5">
-        <v>97.319000000000003</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J121" s="6">
-        <v>0.20347222222222219</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L121" s="6">
-        <v>0.29305555555555557</v>
-      </c>
-      <c r="M121" s="12" t="s">
+      <c r="J121" s="8">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L121" s="8">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="M121" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="17">
-        <v>7105</v>
+        <v>9906</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D122" s="5">
-        <v>148.21600000000001</v>
+        <v>97.319000000000003</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="5" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J122" s="6">
-        <v>0.33819444444444446</v>
+        <v>0.20277777777777781</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="L122" s="6">
-        <v>0.45208333333333334</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="M122" s="12" t="s">
         <v>65</v>
@@ -5298,35 +5325,35 @@
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="17">
-        <v>9931</v>
+        <v>7105</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D123" s="5">
-        <v>148.18299999999999</v>
+        <v>148.21600000000001</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J123" s="6">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="K123" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J123" s="6">
-        <v>0.59583333333333333</v>
-      </c>
-      <c r="K123" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L123" s="6">
-        <v>0.71458333333333324</v>
+        <v>0.45416666666666666</v>
       </c>
       <c r="M123" s="12" t="s">
         <v>65</v>
@@ -5334,35 +5361,35 @@
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="17">
-        <v>7236</v>
+        <v>9931</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D124" s="5">
-        <v>97.352000000000004</v>
+        <v>148.18299999999999</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J124" s="6">
-        <v>0.77083333333333337</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="L124" s="6">
-        <v>0.86041666666666661</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="M124" s="12" t="s">
         <v>65</v>
@@ -5370,35 +5397,35 @@
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" s="17">
-        <v>9905</v>
+        <v>7236</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D125" s="5">
-        <v>97.319000000000003</v>
+        <v>97.352000000000004</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J125" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K125" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J125" s="6">
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="K125" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L125" s="6">
-        <v>0.25</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="M125" s="12" t="s">
         <v>65</v>
@@ -5406,35 +5433,35 @@
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="17">
-        <v>7099</v>
+        <v>9905</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D126" s="5">
-        <v>97.352000000000004</v>
+        <v>97.319000000000003</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="5" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J126" s="6">
-        <v>0.27569444444444446</v>
+        <v>0.15625</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="L126" s="6">
-        <v>0.37013888888888885</v>
+        <v>0.25208333333333333</v>
       </c>
       <c r="M126" s="12" t="s">
         <v>65</v>
@@ -5442,35 +5469,35 @@
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="17">
-        <v>5567</v>
+        <v>7099</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D127" s="5">
-        <v>86.254000000000005</v>
+        <v>97.352000000000004</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F127" s="5">
-        <v>67505</v>
+      <c r="F127" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" s="6">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="K127" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J127" s="6">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="K127" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="L127" s="6">
-        <v>0.6645833333333333</v>
+        <v>0.36319444444444443</v>
       </c>
       <c r="M127" s="12" t="s">
         <v>65</v>
@@ -5478,35 +5505,35 @@
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="17">
-        <v>3218</v>
+        <v>5567</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D128" s="5">
-        <v>102.196</v>
+        <v>86.254000000000005</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="5" t="s">
-        <v>83</v>
+      <c r="F128" s="5">
+        <v>67505</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J128" s="6">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="K128" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J128" s="6">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L128" s="6">
-        <v>0.76944444444444438</v>
+        <v>0.66597222222222219</v>
       </c>
       <c r="M128" s="12" t="s">
         <v>65</v>
@@ -5514,35 +5541,35 @@
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" s="17">
-        <v>3237</v>
+        <v>3218</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D129" s="5">
-        <v>105.374</v>
+        <v>102.196</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F129" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G129" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J129" s="6">
-        <v>0.21805555555555556</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L129" s="6">
-        <v>0.30138888888888887</v>
+        <v>0.76527777777777783</v>
       </c>
       <c r="M129" s="12" t="s">
         <v>65</v>
@@ -5550,35 +5577,35 @@
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="17">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D130" s="5">
-        <v>105.34099999999999</v>
+        <v>102.196</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F130" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G130" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J130" s="6">
-        <v>0.31111111111111112</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L130" s="6">
-        <v>0.38958333333333334</v>
+        <v>0.76527777777777783</v>
       </c>
       <c r="M130" s="12" t="s">
         <v>65</v>
@@ -5586,7 +5613,7 @@
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="17">
-        <v>3251</v>
+        <v>3237</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>74</v>
@@ -5601,203 +5628,203 @@
         <v>86</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J131" s="6">
-        <v>0.59513888888888888</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L131" s="6">
-        <v>0.67569444444444438</v>
+        <v>0.29930555555555555</v>
       </c>
       <c r="M131" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="18">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B132" s="17">
+        <v>3215</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D132" s="5">
+        <v>105.34099999999999</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J132" s="6">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L132" s="6">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="M132" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B133" s="17">
+        <v>3251</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D133" s="5">
+        <v>105.374</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J133" s="6">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L133" s="6">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="18">
         <v>3282</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C134" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D132" s="9">
+      <c r="D134" s="9">
         <v>86.254000000000005</v>
       </c>
-      <c r="E132" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="9">
+      <c r="E134" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="9">
         <v>76516</v>
       </c>
-      <c r="G132" s="9" t="s">
+      <c r="G134" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9" t="s">
+      <c r="H134" s="9"/>
+      <c r="I134" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J132" s="10">
-        <v>0.70486111111111116</v>
-      </c>
-      <c r="K132" s="9" t="s">
+      <c r="J134" s="10">
+        <v>0.70763888888888893</v>
+      </c>
+      <c r="K134" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L132" s="10">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="M132" s="13" t="s">
+      <c r="L134" s="10">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="M134" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B133" s="39"/>
-      <c r="C133" s="40"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="41"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="41"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="42"/>
-      <c r="K133" s="41"/>
-      <c r="L133" s="42"/>
-      <c r="M133" s="43"/>
-    </row>
-    <row r="134" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="39"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="45"/>
-      <c r="F134" s="45"/>
-      <c r="G134" s="45"/>
-      <c r="H134" s="45"/>
-      <c r="I134" s="45"/>
-      <c r="J134" s="46"/>
-      <c r="K134" s="45"/>
-      <c r="L134" s="46"/>
-      <c r="M134" s="47"/>
-    </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B135" s="16">
+      <c r="B135" s="39"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="42"/>
+      <c r="K135" s="41"/>
+      <c r="L135" s="42"/>
+      <c r="M135" s="43"/>
+    </row>
+    <row r="136" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="39"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="45"/>
+      <c r="J136" s="46"/>
+      <c r="K136" s="45"/>
+      <c r="L136" s="46"/>
+      <c r="M136" s="47"/>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B137" s="16">
         <v>9908</v>
       </c>
-      <c r="C135" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D135" s="7">
+      <c r="C137" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D137" s="7">
         <v>97.319000000000003</v>
       </c>
-      <c r="E135" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G135" s="7" t="s">
+      <c r="E137" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7" t="s">
+      <c r="H137" s="7"/>
+      <c r="I137" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J135" s="8">
-        <v>0.29444444444444445</v>
-      </c>
-      <c r="K135" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L135" s="8">
-        <v>0.38055555555555554</v>
-      </c>
-      <c r="M135" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B136" s="17">
-        <v>7132</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D136" s="5">
-        <v>148.21600000000001</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J136" s="6">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="K136" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L136" s="6">
-        <v>0.62916666666666665</v>
-      </c>
-      <c r="M136" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" s="17">
-        <v>9906</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D137" s="5">
-        <v>97.319000000000003</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J137" s="6">
-        <v>0.20347222222222219</v>
-      </c>
-      <c r="K137" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L137" s="6">
-        <v>0.29305555555555557</v>
-      </c>
-      <c r="M137" s="12" t="s">
-        <v>89</v>
+      <c r="J137" s="8">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L137" s="8">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" s="17">
-        <v>7105</v>
+        <v>7132</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D138" s="5">
         <v>148.21600000000001</v>
@@ -5806,109 +5833,109 @@
         <v>13</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H138" s="5"/>
       <c r="I138" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J138" s="6">
-        <v>0.33819444444444446</v>
+        <v>0.51458333333333328</v>
       </c>
       <c r="K138" s="5" t="s">
         <v>57</v>
       </c>
       <c r="L138" s="6">
-        <v>0.45208333333333334</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="M138" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="17">
-        <v>9932</v>
+        <v>9906</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D139" s="5">
-        <v>148.18299999999999</v>
+        <v>97.319000000000003</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="5" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J139" s="6">
-        <v>0.65625</v>
+        <v>0.20277777777777781</v>
       </c>
       <c r="K139" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L139" s="6">
-        <v>0.77916666666666667</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="M139" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="17">
-        <v>3257</v>
+        <v>7105</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D140" s="5">
-        <v>105.374</v>
+        <v>148.21600000000001</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H140" s="5"/>
       <c r="I140" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J140" s="6">
-        <v>0.84513888888888899</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="L140" s="6">
-        <v>0.92569444444444438</v>
+        <v>0.45416666666666666</v>
       </c>
       <c r="M140" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" s="17">
-        <v>3214</v>
+        <v>9932</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D141" s="5">
-        <v>105.34099999999999</v>
+        <v>148.18299999999999</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>13</v>
@@ -5921,27 +5948,27 @@
       </c>
       <c r="H141" s="5"/>
       <c r="I141" s="5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J141" s="6">
-        <v>0.23263888888888887</v>
+        <v>0.65625</v>
       </c>
       <c r="K141" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L141" s="6">
-        <v>0.31527777777777777</v>
+        <v>0.7909722222222223</v>
       </c>
       <c r="M141" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="17">
-        <v>3239</v>
+        <v>3257</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D142" s="5">
         <v>105.374</v>
@@ -5953,375 +5980,375 @@
         <v>94</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="H142" s="5"/>
       <c r="I142" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J142" s="6">
-        <v>0.35000000000000003</v>
+        <v>0.84652777777777777</v>
       </c>
       <c r="K142" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L142" s="6">
-        <v>0.43194444444444446</v>
+        <v>0.9277777777777777</v>
       </c>
       <c r="M142" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" s="17">
-        <v>3216</v>
+        <v>3257</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D143" s="5">
-        <v>105.34099999999999</v>
+        <v>105.374</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="H143" s="5"/>
       <c r="I143" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J143" s="6">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="K143" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J143" s="6">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="K143" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L143" s="6">
-        <v>0.60625000000000007</v>
+        <v>0.9277777777777777</v>
       </c>
       <c r="M143" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="17">
-        <v>3253</v>
+        <v>3214</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D144" s="5">
-        <v>105.374</v>
+        <v>105.34099999999999</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H144" s="5"/>
       <c r="I144" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J144" s="6">
-        <v>0.67638888888888893</v>
+        <v>0.23472222222222219</v>
       </c>
       <c r="K144" s="5" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L144" s="6">
-        <v>0.7583333333333333</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="M144" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" s="17">
-        <v>3219</v>
+        <v>3239</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D145" s="5">
-        <v>105.34099999999999</v>
+        <v>105.374</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H145" s="5"/>
       <c r="I145" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J145" s="6">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="K145" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J145" s="6">
-        <v>0.81319444444444444</v>
-      </c>
-      <c r="K145" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L145" s="6">
-        <v>0.8930555555555556</v>
+        <v>0.43263888888888885</v>
       </c>
       <c r="M145" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B146" s="17">
+        <v>3216</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="146" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="18">
+      <c r="D146" s="5">
+        <v>105.34099999999999</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J146" s="6">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L146" s="6">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="M146" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B147" s="17">
+        <v>3253</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D147" s="5">
+        <v>105.374</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" s="6">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L147" s="6">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="M147" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B148" s="17">
+        <v>3219</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D148" s="5">
+        <v>105.34099999999999</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J148" s="6">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L148" s="6">
+        <v>0.90347222222222223</v>
+      </c>
+      <c r="M148" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="18">
         <v>7239</v>
       </c>
-      <c r="C146" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D146" s="9">
+      <c r="C149" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D149" s="9">
         <v>97.352000000000004</v>
       </c>
-      <c r="E146" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G146" s="9" t="s">
+      <c r="E149" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G149" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J146" s="10">
-        <v>0.90625</v>
-      </c>
-      <c r="K146" s="9" t="s">
+      <c r="H149" s="9"/>
+      <c r="I149" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J149" s="10">
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="K149" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L146" s="10">
-        <v>0.99097222222222225</v>
-      </c>
-      <c r="M146" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B147" s="39"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="41"/>
-      <c r="F147" s="41"/>
-      <c r="G147" s="41"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="42"/>
-      <c r="K147" s="41"/>
-      <c r="L147" s="42"/>
-      <c r="M147" s="43"/>
-    </row>
-    <row r="148" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="39"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="45"/>
-      <c r="H148" s="45"/>
-      <c r="I148" s="45"/>
-      <c r="J148" s="46"/>
-      <c r="K148" s="45"/>
-      <c r="L148" s="46"/>
-      <c r="M148" s="47"/>
-    </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B149" s="16">
-        <v>5543</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D149" s="7">
-        <v>50.863999999999997</v>
-      </c>
-      <c r="E149" s="7" t="s">
+      <c r="L149" s="10">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="M149" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B150" s="39"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="41"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="41"/>
+      <c r="J150" s="42"/>
+      <c r="K150" s="41"/>
+      <c r="L150" s="42"/>
+      <c r="M150" s="43"/>
+    </row>
+    <row r="151" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="39"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="45"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="45"/>
+      <c r="H151" s="45"/>
+      <c r="I151" s="45"/>
+      <c r="J151" s="46"/>
+      <c r="K151" s="45"/>
+      <c r="L151" s="46"/>
+      <c r="M151" s="47"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B152" s="16">
+        <v>9941</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D152" s="7">
+        <v>87.206999999999994</v>
+      </c>
+      <c r="E152" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F152" s="7">
         <v>64540</v>
       </c>
-      <c r="G149" s="7" t="s">
+      <c r="G152" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J149" s="8">
-        <v>0.23819444444444446</v>
-      </c>
-      <c r="K149" s="7" t="s">
+      <c r="H152" s="7"/>
+      <c r="I152" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J152" s="8">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L149" s="8">
+      <c r="L152" s="8">
         <v>0.26944444444444443</v>
       </c>
-      <c r="M149" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B150" s="34">
-        <v>9941</v>
-      </c>
-      <c r="C150" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D150" s="36">
-        <v>0</v>
-      </c>
-      <c r="E150" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F150" s="36">
-        <v>64540</v>
-      </c>
-      <c r="G150" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="J150" s="37">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="K150" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="L150" s="37">
-        <v>0.26944444444444443</v>
-      </c>
-      <c r="M150" s="38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B151" s="17">
-        <v>9929</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D151" s="5">
-        <v>148.18299999999999</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J151" s="6">
-        <v>0.28263888888888888</v>
-      </c>
-      <c r="K151" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L151" s="6">
-        <v>0.41250000000000003</v>
-      </c>
-      <c r="M151" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="17">
-        <v>7118</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D152" s="5">
-        <v>61.009</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J152" s="6">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="K152" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L152" s="6">
-        <v>0.49236111111111108</v>
-      </c>
-      <c r="M152" s="12" t="s">
-        <v>89</v>
+      <c r="M152" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="17">
-        <v>9952</v>
+        <v>9929</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D153" s="5">
-        <v>60.975999999999999</v>
+        <v>148.18299999999999</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H153" s="5"/>
       <c r="I153" s="5" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J153" s="6">
-        <v>0.57500000000000007</v>
+        <v>0.28263888888888888</v>
       </c>
       <c r="K153" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L153" s="6">
-        <v>0.62916666666666665</v>
+        <v>0.41388888888888892</v>
       </c>
       <c r="M153" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -6329,7 +6356,7 @@
         <v>7180</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D154" s="5">
         <v>61.009</v>
@@ -6338,26 +6365,26 @@
         <v>13</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H154" s="5"/>
       <c r="I154" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J154" s="6">
-        <v>0.65555555555555556</v>
+        <v>0.65625</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L154" s="6">
         <v>0.70694444444444438</v>
       </c>
       <c r="M154" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -6365,7 +6392,7 @@
         <v>7193</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D155" s="5">
         <v>97.352000000000004</v>
@@ -6374,26 +6401,26 @@
         <v>13</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H155" s="5"/>
       <c r="I155" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J155" s="6">
-        <v>0.65555555555555556</v>
+        <v>0.65625</v>
       </c>
       <c r="K155" s="5" t="s">
         <v>76</v>
       </c>
       <c r="L155" s="6">
-        <v>0.74097222222222225</v>
+        <v>0.73819444444444438</v>
       </c>
       <c r="M155" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -6401,7 +6428,7 @@
         <v>5543</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D156" s="5">
         <v>50.863999999999997</v>
@@ -6420,7 +6447,7 @@
         <v>76</v>
       </c>
       <c r="J156" s="6">
-        <v>0.23819444444444446</v>
+        <v>0.23750000000000002</v>
       </c>
       <c r="K156" s="5" t="s">
         <v>57</v>
@@ -6429,396 +6456,676 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="M156" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B157" s="34">
-        <v>9941</v>
-      </c>
-      <c r="C157" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D157" s="36">
-        <v>0</v>
-      </c>
-      <c r="E157" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" s="36">
-        <v>64540</v>
-      </c>
-      <c r="G157" s="36" t="s">
+      <c r="B157" s="17">
+        <v>9929</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D157" s="5">
+        <v>148.18299999999999</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G157" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H157" s="36"/>
-      <c r="I157" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="J157" s="37">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="K157" s="36" t="s">
+      <c r="H157" s="5"/>
+      <c r="I157" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L157" s="37">
-        <v>0.26944444444444443</v>
-      </c>
-      <c r="M157" s="38" t="s">
-        <v>89</v>
+      <c r="J157" s="6">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L157" s="6">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="M157" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="17">
-        <v>9929</v>
+        <v>7226</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D158" s="5">
-        <v>148.18299999999999</v>
+        <v>148.21600000000001</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H158" s="5"/>
       <c r="I158" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J158" s="6">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="K158" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J158" s="6">
-        <v>0.28263888888888888</v>
-      </c>
-      <c r="K158" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L158" s="6">
-        <v>0.41250000000000003</v>
+        <v>0.8256944444444444</v>
       </c>
       <c r="M158" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" s="17">
-        <v>7226</v>
+        <v>9915</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D159" s="5">
-        <v>148.21600000000001</v>
+        <v>50.863999999999997</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>108</v>
+        <v>19</v>
+      </c>
+      <c r="F159" s="5">
+        <v>46551</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H159" s="5"/>
       <c r="I159" s="5" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J159" s="6">
-        <v>0.70138888888888884</v>
+        <v>0.88263888888888886</v>
       </c>
       <c r="K159" s="5" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="L159" s="6">
-        <v>0.82430555555555562</v>
+        <v>0.9145833333333333</v>
       </c>
       <c r="M159" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="17">
-        <v>9915</v>
+        <v>9907</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D160" s="5">
-        <v>50.863999999999997</v>
+        <v>97.319000000000003</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160" s="5">
-        <v>46551</v>
+        <v>13</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="H160" s="5"/>
       <c r="I160" s="5" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J160" s="6">
-        <v>0.88750000000000007</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="K160" s="5" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="L160" s="6">
-        <v>0.91805555555555562</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M160" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" s="17">
-        <v>9907</v>
+        <v>9951</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D161" s="5">
-        <v>97.319000000000003</v>
+        <v>60.975999999999999</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H161" s="5"/>
       <c r="I161" s="5" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="J161" s="6">
-        <v>0.24583333333333335</v>
+        <v>0.27847222222222223</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L161" s="6">
-        <v>0.33611111111111108</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M161" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" s="17">
-        <v>9951</v>
+        <v>7206</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D162" s="5">
-        <v>60.975999999999999</v>
+        <v>185.822</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="H162" s="5"/>
       <c r="I162" s="5" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J162" s="6">
-        <v>0.28472222222222221</v>
+        <v>0.69861111111111107</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="L162" s="6">
-        <v>0.33611111111111108</v>
+        <v>0.85069444444444453</v>
       </c>
       <c r="M162" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" s="17">
-        <v>7206</v>
+        <v>5370</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D163" s="5">
-        <v>185.822</v>
+        <v>124.813</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F163" s="5" t="s">
-        <v>113</v>
+      <c r="F163" s="5">
+        <v>46553</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H163" s="5"/>
       <c r="I163" s="5" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="J163" s="6">
-        <v>0.70138888888888884</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L163" s="6">
-        <v>0.84861111111111109</v>
+        <v>0.95347222222222217</v>
       </c>
       <c r="M163" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" s="17">
-        <v>5370</v>
+        <v>9951</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D164" s="5">
-        <v>124.813</v>
+        <v>60.975999999999999</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F164" s="5">
-        <v>46553</v>
+      <c r="F164" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H164" s="5"/>
       <c r="I164" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J164" s="6">
-        <v>0.86249999999999993</v>
+        <v>0.27847222222222223</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L164" s="6">
-        <v>0.95347222222222217</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M164" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B165" s="17">
-        <v>9951</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D165" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="18">
+        <v>7137</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D165" s="9">
+        <v>61.009</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J165" s="10">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L165" s="10">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="M165" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B166" s="39"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="41"/>
+      <c r="E166" s="41"/>
+      <c r="F166" s="41"/>
+      <c r="G166" s="41"/>
+      <c r="H166" s="41"/>
+      <c r="I166" s="41"/>
+      <c r="J166" s="42"/>
+      <c r="K166" s="41"/>
+      <c r="L166" s="42"/>
+      <c r="M166" s="43"/>
+    </row>
+    <row r="167" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="39"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="45"/>
+      <c r="E167" s="45"/>
+      <c r="F167" s="45"/>
+      <c r="G167" s="45"/>
+      <c r="H167" s="45"/>
+      <c r="I167" s="45"/>
+      <c r="J167" s="46"/>
+      <c r="K167" s="45"/>
+      <c r="L167" s="46"/>
+      <c r="M167" s="47"/>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B168" s="16">
+        <v>5365</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D168" s="7">
+        <v>41.594000000000001</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" s="7">
+        <v>66481</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J168" s="8">
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L168" s="8">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="M168" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B169" s="17">
+        <v>7118</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D169" s="5">
+        <v>61.009</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J169" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="K169" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L169" s="6">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="M169" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B170" s="17">
+        <v>9952</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D170" s="5">
         <v>60.975999999999999</v>
       </c>
-      <c r="E165" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J165" s="6">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="K165" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L165" s="6">
-        <v>0.33611111111111108</v>
-      </c>
-      <c r="M165" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="166" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="18">
-        <v>7137</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D166" s="9">
-        <v>61.009</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G166" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H166" s="9"/>
-      <c r="I166" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J166" s="10">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="K166" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L166" s="10">
-        <v>0.56527777777777777</v>
-      </c>
-      <c r="M166" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B167" s="26"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="29"/>
-      <c r="I167" s="29"/>
-      <c r="J167" s="29"/>
-      <c r="K167" s="29"/>
-      <c r="L167" s="29"/>
-      <c r="M167" s="30"/>
-    </row>
-    <row r="168" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="27"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
-      <c r="G168" s="32"/>
-      <c r="H168" s="32"/>
-      <c r="I168" s="32"/>
-      <c r="J168" s="32"/>
-      <c r="K168" s="32"/>
-      <c r="L168" s="32"/>
-      <c r="M168" s="33"/>
+      <c r="E170" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J170" s="6">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L170" s="6">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="M170" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B171" s="17">
+        <v>7861</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D171" s="5">
+        <v>41.578000000000003</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J171" s="6">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L171" s="6">
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="M171" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B172" s="17">
+        <v>5366</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D172" s="5">
+        <v>41.594000000000001</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="5">
+        <v>66483</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J172" s="6">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L172" s="6">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="M172" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B173" s="17">
+        <v>8528</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D173" s="5">
+        <v>41.578000000000003</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J173" s="6">
+        <v>0.78680555555555554</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L173" s="6">
+        <v>0.81388888888888899</v>
+      </c>
+      <c r="M173" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B174" s="17">
+        <v>5367</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D174" s="5">
+        <v>41.594000000000001</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="5">
+        <v>66485</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J174" s="6">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L174" s="6">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="M174" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="18">
+        <v>8555</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D175" s="9">
+        <v>41.578000000000003</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J175" s="10">
+        <v>0.90833333333333333</v>
+      </c>
+      <c r="K175" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L175" s="10">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="M175" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B176" s="26"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="29"/>
+      <c r="F176" s="29"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="29"/>
+      <c r="I176" s="29"/>
+      <c r="J176" s="29"/>
+      <c r="K176" s="29"/>
+      <c r="L176" s="29"/>
+      <c r="M176" s="30"/>
+    </row>
+    <row r="177" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="27"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="32"/>
+      <c r="J177" s="32"/>
+      <c r="K177" s="32"/>
+      <c r="L177" s="32"/>
+      <c r="M177" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
